--- a/output/gold/GT.xlsx
+++ b/output/gold/GT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pietro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pietro/Desktop/VIDA-NYU/data-gatherer/output/gold/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C6A525-E454-754E-AFB3-DD535D376691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10D2A1-611C-E749-98CC-170741A8303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,12 +563,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -586,6 +588,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -596,16 +599,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -617,6 +623,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -629,6 +636,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -641,6 +649,7 @@
       <sz val="12"/>
       <color rgb="FF467886"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -911,7 +920,7 @@
   <dimension ref="A1:EF1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +928,7 @@
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
